--- a/biology/Médecine/Ne_m'oublie_pas_(documentaire)/Ne_m'oublie_pas_(documentaire).xlsx
+++ b/biology/Médecine/Ne_m'oublie_pas_(documentaire)/Ne_m'oublie_pas_(documentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ne_m%27oublie_pas_(documentaire)</t>
+          <t>Ne_m'oublie_pas_(documentaire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne m'oublie pas (Vergiss mein nicht) est film documentaire allemand de David Sieveking sorti en 2013, sur sa mère atteinte de la maladie d'Alzheimer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ne_m%27oublie_pas_(documentaire)</t>
+          <t>Ne_m'oublie_pas_(documentaire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Sieveking filme la progression de la maladie d'Alzheimer chez sa mère, Grete Sieveking. Il aide son père Malte à s'occuper d'elle et accompagne sa mère. En parallèle, il raconte l'histoire de la vie de Grete. Née Margarete Schaumann en 1937, étudiante à l'université de Hambourg, inspirée par Ulrike Meinhof, elle fut une militante féministe d'extrême gauche dans l'Allemagne des années 1960 et 1970, luttant pour le droit à l'avortement. Son fils raconte aussi les détails de sa vie privée, son mariage avec Malte Sieveking, militant de l'Union socialiste allemande des étudiants puis professeur d'informatique à l'université de Francfort, leur relation libre et leurs liaisons extraconjugales. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne_m%27oublie_pas_(documentaire)</t>
+          <t>Ne_m'oublie_pas_(documentaire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Vergiss mein nicht
 Titre français : Ne m'oublie pas
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ne_m%27oublie_pas_(documentaire)</t>
+          <t>Ne_m'oublie_pas_(documentaire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Festival international du film de Locarno 2012 : prix de la semaine de la critique[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festival international du film de Locarno 2012 : prix de la semaine de la critique</t>
         </is>
       </c>
     </row>
